--- a/biology/Zoologie/Camponotus_penninervis/Camponotus_penninervis.xlsx
+++ b/biology/Zoologie/Camponotus_penninervis/Camponotus_penninervis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camponotus penninervis est une espèce fossile d'insectes hyménoptères fourmis de la tribu des Camponotini (sous-famille des Formicinae).
 </t>
@@ -511,15 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Camponotus penninervis est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-L'holotype A63 ♂, de l'ère Cénozoïque, et de l'époque Stampien (33,9 à 28,1 Ma) vient des collections de l'Institut géologique de Lyon et du gypse d'Aix-en-Provence[1].
-Confirmation du genre
-En 2012 le myrmécologue anglais Barry Bolton confirme l'appartenance de cette espèce au genre Camponotus[3],[2].
-Étymologie
-L'épithète spécifique peninervis signifie en latin « nerfs de la plume ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Camponotus penninervis est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -545,18 +553,205 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype A63 ♂, de l'ère Cénozoïque, et de l'époque Stampien (33,9 à 28,1 Ma) vient des collections de l'Institut géologique de Lyon et du gypse d'Aix-en-Provence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Camponotus_penninervis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camponotus_penninervis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confirmation du genre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012 le myrmécologue anglais Barry Bolton confirme l'appartenance de cette espèce au genre Camponotus,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Camponotus_penninervis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camponotus_penninervis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique peninervis signifie en latin « nerfs de la plume ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Camponotus_penninervis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camponotus_penninervis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 1] : Pour l'holotype mâle A63 
-« Insecte noir à ailes claires. Tête quadrangulaire, coins postérieurs arrondis, tronquée à l'avant ; ni yeux ni ocelles visibles ; antennes bien conservées, coudées ; scape long; funicule filiforme ; onze articles, de plus en plus courts, à l'exception du dernier qui est plus long. Thorax ovale. Pétiole court, formé d'un seul segment. abdomen ovale, cinq segments visibles. Pattes fortes, assez longues. Ailes transparentes ; nervation bien conservée, identique à celle du g. Camponotus actuel. »[1].
-Dimensions
-La longueur totale est de 6 mm[1].
-Affinités
-« Les caractères de cet échantillon l'attribuent avec certitude au g. Camponotus. Le plus voisin parmi les Insectes actuels, nous semble être C. binghami Forel des Indes. Se distingue de C. mengei Mayr de l'ambre de la Baltique par sa taille moindre. »[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : Pour l'holotype mâle A63 
+« Insecte noir à ailes claires. Tête quadrangulaire, coins postérieurs arrondis, tronquée à l'avant ; ni yeux ni ocelles visibles ; antennes bien conservées, coudées ; scape long; funicule filiforme ; onze articles, de plus en plus courts, à l'exception du dernier qui est plus long. Thorax ovale. Pétiole court, formé d'un seul segment. abdomen ovale, cinq segments visibles. Pattes fortes, assez longues. Ailes transparentes ; nervation bien conservée, identique à celle du g. Camponotus actuel. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Camponotus_penninervis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camponotus_penninervis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 6 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Camponotus_penninervis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camponotus_penninervis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Les caractères de cet échantillon l'attribuent avec certitude au g. Camponotus. Le plus voisin parmi les Insectes actuels, nous semble être C. binghami Forel des Indes. Se distingue de C. mengei Mayr de l'ambre de la Baltique par sa taille moindre. ».
 </t>
         </is>
       </c>
